--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1539.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1539.xlsx
@@ -354,10 +354,10 @@
         <v>1.745725461395654</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E1">
         <v>1.057284108730565</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1539.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1539.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.187256602181307</v>
+        <v>1.54348886013031</v>
       </c>
       <c r="B1">
-        <v>1.745725461395654</v>
+        <v>2.764216423034668</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>6.390307903289795</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>1.588533401489258</v>
       </c>
       <c r="E1">
-        <v>1.057284108730565</v>
+        <v>0.8652488589286804</v>
       </c>
     </row>
   </sheetData>
